--- a/Breast Cancer Git Hub/FigureFormatting.xlsx
+++ b/Breast Cancer Git Hub/FigureFormatting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17739\Documents\GitHub\BreastCancerDetection\Breast Cancer Git Hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A587989-2192-4E8D-9387-27E13B62A9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D55CCE-3ACF-4AF9-BED1-B6F3C1C1B72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E335253D-CCE4-423F-9677-A15561F173C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E335253D-CCE4-423F-9677-A15561F173C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,28 +159,26 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>68581</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>71103</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>289561</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>96268</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>382905</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CA0C10-66CE-43A3-AD1E-ABBF674A2454}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB81859-4841-4D09-8ED1-2CC727D74518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
@@ -188,18 +186,21 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6774181" y="238743"/>
-          <a:ext cx="5707380" cy="3377965"/>
+          <a:off x="6736080" y="289560"/>
+          <a:ext cx="4619625" cy="3695700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:noFill/>
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -505,9 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2F8953-7F64-41C5-A2AB-1CD564D3B0C7}">
-  <dimension ref="B23:L23"/>
+  <dimension ref="B23:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -518,7 +521,9 @@
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="2" t="s">
+    </row>
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
